--- a/data/trans_camb/P21_R-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P21_R-Dificultad-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-0.285103033833542</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5.821496014916344</v>
+        <v>5.821496014916342</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>4.351643174675601</v>
@@ -655,7 +655,7 @@
         <v>-8.32108041006358</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-0.05438890271569075</v>
+        <v>-0.05438890271568519</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>2.906872953197281</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.4215831712847649</v>
+        <v>-0.4385534965897643</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.484563482262289</v>
+        <v>-4.52648759301558</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3870542001429047</v>
+        <v>0.147507547118662</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.01864698126213943</v>
+        <v>-0.2319843634902125</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-12.05538007647165</v>
+        <v>-12.44046672238528</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-4.752897144554777</v>
+        <v>-4.411504798662246</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.2039437424276925</v>
+        <v>-0.2363354780019283</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-8.421448339753574</v>
+        <v>-8.481823927991758</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.447725258769174</v>
+        <v>-1.647404159710059</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.864390448160874</v>
+        <v>7.843828592536989</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.069191268152212</v>
+        <v>3.447399277626762</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.94251573182081</v>
+        <v>11.2046826492243</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.528957671804797</v>
+        <v>8.809399026731827</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-4.085092942144357</v>
+        <v>-4.313754605677492</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.095885562805438</v>
+        <v>4.594190323084515</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>5.974329213224141</v>
+        <v>5.683126754352013</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-2.70577698940413</v>
+        <v>-2.56361653328615</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>5.395755118016299</v>
+        <v>5.306461496561456</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.01506970682333501</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.3077071367441944</v>
+        <v>0.3077071367441943</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.1408726537772627</v>
@@ -760,7 +760,7 @@
         <v>-0.2693724261403934</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.001760693318372524</v>
+        <v>-0.001760693318372344</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.1107441083137362</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.02091441846147571</v>
+        <v>-0.0198517726371378</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.202948843410262</v>
+        <v>-0.2077399580137677</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.01833472726619059</v>
+        <v>0.0008307596842885213</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.001591638065093573</v>
+        <v>-0.006066022099209692</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3671451446008179</v>
+        <v>-0.3702284303217214</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.145189971827517</v>
+        <v>-0.1331827535378456</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.004545463708330177</v>
+        <v>-0.009075522923521239</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2966718047831415</v>
+        <v>-0.302142947442426</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.0509473202941658</v>
+        <v>-0.05816000619054569</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.4826450555535533</v>
+        <v>0.4785352492512261</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.18013562084187</v>
+        <v>0.2150451706313216</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.6469960996766682</v>
+        <v>0.6651880577769039</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.3037905415297246</v>
+        <v>0.3106879914335762</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.143592940278406</v>
+        <v>-0.1471416532938106</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1434946499504901</v>
+        <v>0.1576608304810586</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2485164658719587</v>
+        <v>0.2306454448723887</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.1103244271914712</v>
+        <v>-0.1037594558778232</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.2178466327934152</v>
+        <v>0.2175151250789151</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-1.777476761929769</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.9733826450074867</v>
+        <v>0.9733826450074784</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>4.126888485565522</v>
@@ -878,7 +878,7 @@
         <v>-0.9459869247338493</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>1.099639578843328</v>
+        <v>1.099639578843331</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5533047764990027</v>
+        <v>0.7439715407743731</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.610567891192836</v>
+        <v>-3.8578065771637</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.528054579343089</v>
+        <v>-2.70610385823359</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04869229297780591</v>
+        <v>0.1429683376139482</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-5.315562867335526</v>
+        <v>-5.420306205823478</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-2.217365130776786</v>
+        <v>-2.612742279946766</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.530217153132146</v>
+        <v>1.468800704765043</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-3.616838919883019</v>
+        <v>-3.624517035445577</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.69243222425375</v>
+        <v>-1.559003939376951</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.694984475310386</v>
+        <v>7.907916655477838</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.166924857327081</v>
+        <v>3.126971568969835</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.400789945873034</v>
+        <v>4.458866148302628</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.890927737978642</v>
+        <v>7.524104534736892</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.839924337666954</v>
+        <v>2.351060872680368</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.282487514737015</v>
+        <v>4.558156671898862</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>6.612260334668482</v>
+        <v>6.619823315364797</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.365421665704672</v>
+        <v>1.508012929873095</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.455770737605159</v>
+        <v>3.59605093303519</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.0811271460227915</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04442688516042244</v>
+        <v>0.04442688516042206</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.2129905473496206</v>
@@ -983,7 +983,7 @@
         <v>-0.04882280526585067</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.0567528869763128</v>
+        <v>0.05675288697631294</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.0197097493140012</v>
+        <v>0.03663987122391589</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1966530990794672</v>
+        <v>-0.2053740538373498</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1374693304195648</v>
+        <v>-0.1499776283119721</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.001270049056972421</v>
+        <v>0.006572171246898196</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2242438302508234</v>
+        <v>-0.2340104774604752</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.09266373702508944</v>
+        <v>-0.1076822191869607</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07321164113401774</v>
+        <v>0.07090964113322941</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1756762694110846</v>
+        <v>-0.1732615455792175</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.08019234897675409</v>
+        <v>-0.07620106440613438</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.4931492154184227</v>
+        <v>0.5123469690234227</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2158600682064093</v>
+        <v>0.2052057851403783</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.2904060612143914</v>
+        <v>0.2862839748918876</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.3881066766686354</v>
+        <v>0.3849036171266992</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.09072454314630127</v>
+        <v>0.1233522944837422</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2167306952146245</v>
+        <v>0.2249825952307999</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.361002888450078</v>
+        <v>0.3625724974024452</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.07340429209839877</v>
+        <v>0.08670662430863052</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.1930095476693875</v>
+        <v>0.1973941054425231</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>-2.493527045744171</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>2.530543405785984</v>
+        <v>2.530543405785981</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6189396484228552</v>
+        <v>0.881142680637923</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.292780281043099</v>
+        <v>-5.396578680668089</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.2108419137710889</v>
+        <v>-0.5048018199831847</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.304758435705861</v>
+        <v>-5.441056166929914</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-7.051565804793158</v>
+        <v>-7.324997319347293</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-2.094502152239358</v>
+        <v>-1.892121820169308</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.066834071267588</v>
+        <v>-0.775286924814003</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-5.288518015578365</v>
+        <v>-4.906394344573191</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03974854328701095</v>
+        <v>0.1374556434230829</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.026045720647433</v>
+        <v>7.663722354764491</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.237253703511889</v>
+        <v>1.24575631242062</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.71473132122343</v>
+        <v>6.436145552158452</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.54094927905147</v>
+        <v>2.223268351603082</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.98347338254316</v>
+        <v>0.5774640689966921</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.031150741895319</v>
+        <v>5.227164186656256</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.202199011157007</v>
+        <v>4.452342560213387</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.05195859213590069</v>
+        <v>0.3946897052179509</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>5.174542579729958</v>
+        <v>5.006582492995519</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>-0.1268523483564657</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.1287354689774859</v>
+        <v>0.1287354689774858</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.02955668781669882</v>
+        <v>0.0511581404504194</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3044023546208628</v>
+        <v>-0.3108539472485268</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.01255333957466312</v>
+        <v>-0.03356221447864165</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2095756904607691</v>
+        <v>-0.2111011757521706</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2733901459857869</v>
+        <v>-0.2880995468760661</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.08344483904419225</v>
+        <v>-0.07158662150000658</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.05118543266609493</v>
+        <v>-0.0377052981400078</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2554971596684129</v>
+        <v>-0.234126587406977</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.0007363569553127669</v>
+        <v>0.006656821650118801</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.5404195698687373</v>
+        <v>0.5253024846084421</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.08432616721688954</v>
+        <v>0.09131733272227384</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.478659239933261</v>
+        <v>0.445474992216981</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1188787462675596</v>
+        <v>0.1057889581144796</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.04524182061015618</v>
+        <v>0.02523567636242877</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2370535518466285</v>
+        <v>0.240039037183362</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2246833611448091</v>
+        <v>0.2311678078933264</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.001603937054696428</v>
+        <v>0.02327005589826716</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.275189798868132</v>
+        <v>0.2706916400208751</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-0.8329717855489555</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5.843983996921423</v>
+        <v>5.843983996921417</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>5.459949374598311</v>
@@ -1297,7 +1297,7 @@
         <v>5.543658237404464</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>5.691078140505371</v>
+        <v>5.691078140505365</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>1.738240631845173</v>
@@ -1306,7 +1306,7 @@
         <v>2.258034488521979</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>5.736650265230509</v>
+        <v>5.736650265230506</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-7.04918493420825</v>
+        <v>-6.5524481791753</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-6.342088830382016</v>
+        <v>-5.713397999770343</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5987122655012301</v>
+        <v>0.9448330899799819</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.2367321260410681</v>
+        <v>-0.1599724856173997</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.166657714085219</v>
+        <v>-0.383372300317073</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.5095121078758783</v>
+        <v>0.8741821398111506</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.254609296811882</v>
+        <v>-1.754650667039734</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-1.39850004099365</v>
+        <v>-1.203515056068612</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.984419454886093</v>
+        <v>2.604866855096753</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.033646689555749</v>
+        <v>3.862216804433075</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.176853075158729</v>
+        <v>4.384613874332577</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10.01501590255063</v>
+        <v>10.54431734406848</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10.73340695351274</v>
+        <v>10.72912082340709</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>10.76600702949567</v>
+        <v>10.60625644176399</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>10.31146777287191</v>
+        <v>10.01378249551778</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>5.393455218442265</v>
+        <v>5.773719600979322</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>5.87169342793019</v>
+        <v>6.0186484253549</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>9.170482437850385</v>
+        <v>8.971698081057943</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.04625923178193697</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.324546659242914</v>
+        <v>0.3245466592429138</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.315336156261557</v>
@@ -1402,7 +1402,7 @@
         <v>0.3201707122677215</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3286848618341194</v>
+        <v>0.3286848618341192</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.09816770155526326</v>
@@ -1411,7 +1411,7 @@
         <v>0.1275232276301209</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.3239791780533129</v>
+        <v>0.3239791780533128</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3362949152160607</v>
+        <v>-0.3189480517254769</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2927280980013746</v>
+        <v>-0.2783579222177713</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.02969303687082087</v>
+        <v>0.0451424439788179</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.01976061555392292</v>
+        <v>-0.00997653603215053</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.005331343877804896</v>
+        <v>-0.01598113345780537</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01918613174638474</v>
+        <v>0.04168849161059682</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1152007710023203</v>
+        <v>-0.09078803514148183</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.07140304318624807</v>
+        <v>-0.06296844883754495</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.1089532077386722</v>
+        <v>0.1295996186572982</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1967574330090331</v>
+        <v>0.2544041781189397</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2823555735727767</v>
+        <v>0.2883226167354598</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.6604761200086322</v>
+        <v>0.7058680035332815</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.7648493718829152</v>
+        <v>0.7526034584420197</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.7674992405867168</v>
+        <v>0.7284035543892651</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7056201045062526</v>
+        <v>0.6871026211246146</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3452917546920345</v>
+        <v>0.3783499367109769</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.3876041898708695</v>
+        <v>0.3902728669867238</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.5984648055391126</v>
+        <v>0.5900963112007307</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-0.4079655119277631</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3.700201089580099</v>
+        <v>3.700201089580102</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>3.011992916815473</v>
@@ -1520,7 +1520,7 @@
         <v>-1.698308780075583</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>2.103312240381022</v>
+        <v>2.103312240381019</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.542950176762848</v>
+        <v>1.629267411808736</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.277461772329109</v>
+        <v>-2.156928351047277</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.760233181218409</v>
+        <v>1.811112115626532</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.9835400554606424</v>
+        <v>0.7456220239805758</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-5.106416468389085</v>
+        <v>-5.008587069180013</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-1.559267480864133</v>
+        <v>-1.56556382727769</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>1.853615084095318</v>
+        <v>1.800496454103842</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-3.091535135169149</v>
+        <v>-3.085226371739795</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.5247148175605644</v>
+        <v>0.7003147267093559</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.366236513522139</v>
+        <v>5.457432706809249</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.414277125193881</v>
+        <v>1.519518451975765</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5.749726355782995</v>
+        <v>5.801334964089735</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.434373788602931</v>
+        <v>4.984372195900062</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-0.7861624855805591</v>
+        <v>-1.070840008409567</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.529219486303411</v>
+        <v>2.525867358275173</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>4.744807376549311</v>
+        <v>4.728726537014044</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-0.204724392776262</v>
+        <v>-0.3396495525378759</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>3.536037762849848</v>
+        <v>3.542069306727519</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.02384566782674221</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.2162775124234028</v>
+        <v>0.2162775124234029</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.1229758103677774</v>
@@ -1625,7 +1625,7 @@
         <v>-0.08146143137802038</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.1008879114013198</v>
+        <v>0.1008879114013197</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.08506386070464754</v>
+        <v>0.08633958959926935</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1268909617863775</v>
+        <v>-0.1184637684453317</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.09828625943965152</v>
+        <v>0.09900738604934108</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.0378651412107695</v>
+        <v>0.03041452401933371</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1991792391041719</v>
+        <v>-0.198221874767234</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.06096296453174717</v>
+        <v>-0.0619502800390164</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.08639528124556982</v>
+        <v>0.08113683438055326</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.1443302804504188</v>
+        <v>-0.1432660219182943</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.02411734698061995</v>
+        <v>0.0324956490871183</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.3295889296087129</v>
+        <v>0.3327056870470684</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.0865373309113231</v>
+        <v>0.09373658693721093</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.3500072111238707</v>
+        <v>0.3599750805673129</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.2324548272789316</v>
+        <v>0.2128672809636815</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.03477425800669359</v>
+        <v>-0.04601318728916781</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1090597218139306</v>
+        <v>0.1080854235040174</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2351963592907748</v>
+        <v>0.2349450720857592</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.01075351560640348</v>
+        <v>-0.01750370468136307</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.1777764849420299</v>
+        <v>0.1759632433404663</v>
       </c>
     </row>
     <row r="34">
